--- a/biology/Médecine/1445_en_santé_et_médecine/1445_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1445_en_santé_et_médecine/1445_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1445_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1445_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1445 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1445_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1445_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Inauguration de l'hôpital des Innocents (Spedale degli Innocenti), fondé en 1419 par l'Arte della Seta o di Por Santa Maria, corporation des métiers de la soie de Florence[1].
-Après les attaques des Mamelouks sur Rhodes, les soldats qu'on ampute de la main à l'hôpital des Chevaliers reçoivent un certificat qui leur permet de n'être pas confondus avec les criminels condamnés à cette même mutilation[2].
-Le roi Charles VII renonce à faire admettre à l'hôpital du Saint-Esprit la totalité des enfants trouvés à Paris ; se rangeant à l'avis des quatre gouverneurs, il ordonne que l'institution ne recevra que les orphelins nés en légitime mariage[3].
-Le sultan Mahmûd Kalidjî fait construire à Mândû, dans le Malva en Inde, « un hôpital dirigé par son médecin personnel Mawlana Fazl Allah et équipé d'un service pour les fous[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Inauguration de l'hôpital des Innocents (Spedale degli Innocenti), fondé en 1419 par l'Arte della Seta o di Por Santa Maria, corporation des métiers de la soie de Florence.
+Après les attaques des Mamelouks sur Rhodes, les soldats qu'on ampute de la main à l'hôpital des Chevaliers reçoivent un certificat qui leur permet de n'être pas confondus avec les criminels condamnés à cette même mutilation.
+Le roi Charles VII renonce à faire admettre à l'hôpital du Saint-Esprit la totalité des enfants trouvés à Paris ; se rangeant à l'avis des quatre gouverneurs, il ordonne que l'institution ne recevra que les orphelins nés en légitime mariage.
+Le sultan Mahmûd Kalidjî fait construire à Mândû, dans le Malva en Inde, « un hôpital dirigé par son médecin personnel Mawlana Fazl Allah et équipé d'un service pour les fous ».</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1445_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1445_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1443-1445 : en Corée sous la dynastie Chosun, compilation des trois cent soixante-cinq volumes de l'Assemblage classifié de prescriptions médicales, qui ne seront publiés qu'après une révision de plus de trente ans, en 1477[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1443-1445 : en Corée sous la dynastie Chosun, compilation des trois cent soixante-cinq volumes de l'Assemblage classifié de prescriptions médicales, qui ne seront publiés qu'après une révision de plus de trente ans, en 1477.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1445_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1445_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1445-1484 : fl. Jean Boadel, né à Barcelone, bachelier en médecine, établi à Marseille, médecin de l'hôpital Saint-Jacques-de-Gallice[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1445-1484 : fl. Jean Boadel, né à Barcelone, bachelier en médecine, établi à Marseille, médecin de l'hôpital Saint-Jacques-de-Gallice.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1445_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1445_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Gabriel de Zerbis (mort en 1505), pionnier de l'observation anatomique, auteur du De cautelis medicorum (« Des précautions [à prendre] avec les médicaments »), imprimé à Venise en 1495[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gabriel de Zerbis (mort en 1505), pionnier de l'observation anatomique, auteur du De cautelis medicorum (« Des précautions [à prendre] avec les médicaments »), imprimé à Venise en 1495.</t>
         </is>
       </c>
     </row>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1445_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1445_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,10 +654,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cristoforo Barzizza (né vers 1390), médecin italien, professeur à Pavie, auteur d'un Introductorium ad opus practicum medicine, d'une Lectura super nono Almansoris Rasis (« Commentaire du neuvième livre du Traité de médecine dédié à Mansour par Rhazès[8] ») ou encore des Intentiones habende in febribus[9].
-1445 ou 1448 : Antonius Guainerius (né à une date inconnue), médecin de Padoue, professeur à Pavie, auteur d'ouvrages sur les « fièvres », les « maladies propres aux femmes », les « maladies de la tête[10],[11] ».</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cristoforo Barzizza (né vers 1390), médecin italien, professeur à Pavie, auteur d'un Introductorium ad opus practicum medicine, d'une Lectura super nono Almansoris Rasis (« Commentaire du neuvième livre du Traité de médecine dédié à Mansour par Rhazès ») ou encore des Intentiones habende in febribus.
+1445 ou 1448 : Antonius Guainerius (né à une date inconnue), médecin de Padoue, professeur à Pavie, auteur d'ouvrages sur les « fièvres », les « maladies propres aux femmes », les « maladies de la tête, ».</t>
         </is>
       </c>
     </row>
